--- a/aba_roy_winners.xlsx
+++ b/aba_roy_winners.xlsx
@@ -1134,6 +1134,9 @@
       <c r="AD4">
         <v>0</v>
       </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
       <c r="AF4">
         <v>4.9</v>
       </c>
@@ -1561,6 +1564,9 @@
         <v>0</v>
       </c>
       <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">

--- a/aba_roy_winners.xlsx
+++ b/aba_roy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
   <si>
     <t>year_x</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>SAA</t>
+  </si>
+  <si>
+    <t>N/A - Stat tracked as of the 1973-74 ABA Season</t>
   </si>
   <si>
     <t>Yes</t>
@@ -897,10 +900,10 @@
         <v>64</v>
       </c>
       <c r="AW2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AX2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:50">
@@ -1043,10 +1046,10 @@
         <v>65</v>
       </c>
       <c r="AW3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AX3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:50">
@@ -1189,10 +1192,10 @@
         <v>65</v>
       </c>
       <c r="AW4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:50">
@@ -1335,10 +1338,10 @@
         <v>65</v>
       </c>
       <c r="AW5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AX5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:50">
@@ -1462,6 +1465,12 @@
       <c r="AP6">
         <v>2.8</v>
       </c>
+      <c r="AQ6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>74</v>
+      </c>
       <c r="AS6">
         <v>2.2</v>
       </c>
@@ -1475,10 +1484,10 @@
         <v>66</v>
       </c>
       <c r="AW6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:50">
@@ -1602,8 +1611,11 @@
       <c r="AP7">
         <v>2.7</v>
       </c>
-      <c r="AR7">
-        <v>5</v>
+      <c r="AQ7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>74</v>
       </c>
       <c r="AS7">
         <v>4</v>
@@ -1618,10 +1630,10 @@
         <v>67</v>
       </c>
       <c r="AW7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AX7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/aba_roy_winners.xlsx
+++ b/aba_roy_winners.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="77">
-  <si>
-    <t>year_x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+  <si>
+    <t>season_ending_year_x</t>
   </si>
   <si>
     <t>award</t>
@@ -58,7 +58,7 @@
     <t>seas_id_y</t>
   </si>
   <si>
-    <t>year_y</t>
+    <t>season_ending_year_y</t>
   </si>
   <si>
     <t>player_y</t>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>triple_double_avg</t>
+  </si>
+  <si>
+    <t>calendar_year</t>
   </si>
   <si>
     <t>1975</t>
@@ -602,13 +605,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX7"/>
+  <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -759,22 +762,25 @@
       <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:51">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -786,7 +792,7 @@
         <v>0.467</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2">
         <v>6345</v>
@@ -795,22 +801,22 @@
         <v>1601</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N2">
         <v>6345</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q2">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="R2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S2">
         <v>22</v>
@@ -819,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W2">
         <v>77</v>
@@ -897,30 +903,33 @@
         <v>24</v>
       </c>
       <c r="AV2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AW2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX2" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AY2">
+        <v>1975</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:51">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -932,7 +941,7 @@
         <v>0.375</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3">
         <v>6027</v>
@@ -941,22 +950,22 @@
         <v>1541</v>
       </c>
       <c r="M3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N3">
         <v>6027</v>
       </c>
       <c r="O3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q3">
         <v>1950</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S3">
         <v>24</v>
@@ -965,10 +974,10 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W3">
         <v>79</v>
@@ -1043,30 +1052,33 @@
         <v>14.1</v>
       </c>
       <c r="AV3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AW3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX3" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AY3">
+        <v>1974</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>24</v>
@@ -1078,7 +1090,7 @@
         <v>0.375</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4">
         <v>6027</v>
@@ -1087,22 +1099,22 @@
         <v>1541</v>
       </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N4">
         <v>6028</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q4">
         <v>1950</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S4">
         <v>24</v>
@@ -1111,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="U4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4">
         <v>17</v>
@@ -1189,30 +1201,33 @@
         <v>12.6</v>
       </c>
       <c r="AV4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AW4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AX4" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AY4">
+        <v>1974</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5">
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>24</v>
@@ -1224,7 +1239,7 @@
         <v>0.375</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5">
         <v>6027</v>
@@ -1233,22 +1248,22 @@
         <v>1541</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>6029</v>
       </c>
       <c r="O5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q5">
         <v>1950</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S5">
         <v>24</v>
@@ -1257,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="U5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W5">
         <v>62</v>
@@ -1335,30 +1350,33 @@
         <v>14.5</v>
       </c>
       <c r="AV5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AW5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX5" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AY5">
+        <v>1974</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:51">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>24</v>
@@ -1370,7 +1388,7 @@
         <v>0.407</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6">
         <v>5273</v>
@@ -1379,22 +1397,22 @@
         <v>1427</v>
       </c>
       <c r="M6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N6">
         <v>5273</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q6">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6">
         <v>21</v>
@@ -1403,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="U6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W6">
         <v>63</v>
@@ -1466,10 +1484,10 @@
         <v>2.8</v>
       </c>
       <c r="AQ6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AR6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS6">
         <v>2.2</v>
@@ -1481,30 +1499,33 @@
         <v>15.3</v>
       </c>
       <c r="AV6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AX6" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AY6">
+        <v>1973</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:51">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>38</v>
@@ -1516,7 +1537,7 @@
         <v>0.633</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K7">
         <v>4770</v>
@@ -1525,22 +1546,22 @@
         <v>1338</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N7">
         <v>4770</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q7">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="S7">
         <v>22</v>
@@ -1549,10 +1570,10 @@
         <v>1</v>
       </c>
       <c r="U7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W7">
         <v>84</v>
@@ -1612,10 +1633,10 @@
         <v>2.7</v>
       </c>
       <c r="AQ7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AR7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AS7">
         <v>4</v>
@@ -1627,13 +1648,16 @@
         <v>23.8</v>
       </c>
       <c r="AV7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AW7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AX7" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="AY7">
+        <v>1972</v>
       </c>
     </row>
   </sheetData>

--- a/aba_roy_winners.xlsx
+++ b/aba_roy_winners.xlsx
@@ -813,13 +813,13 @@
         <v>56</v>
       </c>
       <c r="Q2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="R2" t="s">
         <v>69</v>
       </c>
       <c r="S2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -962,13 +962,13 @@
         <v>57</v>
       </c>
       <c r="Q3">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="R3" t="s">
         <v>70</v>
       </c>
       <c r="S3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -1111,13 +1111,13 @@
         <v>57</v>
       </c>
       <c r="Q4">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="R4" t="s">
         <v>70</v>
       </c>
       <c r="S4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -1260,13 +1260,13 @@
         <v>57</v>
       </c>
       <c r="Q5">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="R5" t="s">
         <v>70</v>
       </c>
       <c r="S5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1409,13 +1409,13 @@
         <v>58</v>
       </c>
       <c r="Q6">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="R6" t="s">
         <v>71</v>
       </c>
       <c r="S6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -1558,13 +1558,13 @@
         <v>59</v>
       </c>
       <c r="Q7">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="R7" t="s">
         <v>70</v>
       </c>
       <c r="S7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T7">
         <v>1</v>

--- a/aba_roy_winners.xlsx
+++ b/aba_roy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -46,21 +46,21 @@
     <t>winner</t>
   </si>
   <si>
-    <t>seas_id_x</t>
-  </si>
-  <si>
-    <t>player_id</t>
+    <t>seas_id</t>
+  </si>
+  <si>
+    <t>player_id_x</t>
   </si>
   <si>
     <t>season_x</t>
   </si>
   <si>
-    <t>seas_id_y</t>
-  </si>
-  <si>
     <t>season_ending_year_y</t>
   </si>
   <si>
+    <t>player_id_y</t>
+  </si>
+  <si>
     <t>player_y</t>
   </si>
   <si>
@@ -233,12 +233,6 @@
   </si>
   <si>
     <t>ABA</t>
-  </si>
-  <si>
-    <t>VIR</t>
-  </si>
-  <si>
-    <t>SAA</t>
   </si>
   <si>
     <t>N/A - Stat tracked as of the 1973-74 ABA Season</t>
@@ -605,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -803,11 +797,11 @@
       <c r="M2" t="s">
         <v>65</v>
       </c>
-      <c r="N2">
-        <v>6345</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
+      </c>
+      <c r="O2">
+        <v>3539</v>
       </c>
       <c r="P2" t="s">
         <v>56</v>
@@ -906,10 +900,10 @@
         <v>65</v>
       </c>
       <c r="AW2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AX2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AY2">
         <v>1975</v>
@@ -952,11 +946,11 @@
       <c r="M3" t="s">
         <v>66</v>
       </c>
-      <c r="N3">
-        <v>6027</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>52</v>
+      </c>
+      <c r="O3">
+        <v>4727</v>
       </c>
       <c r="P3" t="s">
         <v>57</v>
@@ -1055,10 +1049,10 @@
         <v>66</v>
       </c>
       <c r="AW3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AX3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AY3">
         <v>1974</v>
@@ -1066,58 +1060,58 @@
     </row>
     <row r="4" spans="1:51">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4">
         <v>24</v>
       </c>
       <c r="H4">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I4">
-        <v>0.375</v>
+        <v>0.407</v>
       </c>
       <c r="J4" t="s">
         <v>64</v>
       </c>
       <c r="K4">
-        <v>6027</v>
+        <v>5273</v>
       </c>
       <c r="L4">
-        <v>1541</v>
+        <v>1427</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4">
-        <v>6028</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4">
+        <v>647</v>
       </c>
       <c r="P4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q4">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="R4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -1126,138 +1120,138 @@
         <v>72</v>
       </c>
       <c r="V4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="W4">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Y4">
-        <v>22</v>
+        <v>32.3</v>
       </c>
       <c r="Z4">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="AA4">
-        <v>8.9</v>
+        <v>12.2</v>
       </c>
       <c r="AB4">
-        <v>0.556</v>
+        <v>0.515</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AF4">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="AG4">
-        <v>8.9</v>
+        <v>11.8</v>
       </c>
       <c r="AH4">
-        <v>0.556</v>
+        <v>0.527</v>
       </c>
       <c r="AI4">
-        <v>0.556</v>
+        <v>0.518</v>
       </c>
       <c r="AJ4">
         <v>2.7</v>
       </c>
       <c r="AK4">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="AL4">
-        <v>0.63</v>
+        <v>0.743</v>
       </c>
       <c r="AM4">
+        <v>1.2</v>
+      </c>
+      <c r="AN4">
+        <v>2</v>
+      </c>
+      <c r="AO4">
+        <v>3.2</v>
+      </c>
+      <c r="AP4">
+        <v>2.8</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS4">
         <v>2.2</v>
       </c>
-      <c r="AN4">
-        <v>6.8</v>
-      </c>
-      <c r="AO4">
-        <v>9.1</v>
-      </c>
-      <c r="AP4">
-        <v>1</v>
-      </c>
-      <c r="AQ4">
-        <v>0.4</v>
-      </c>
-      <c r="AR4">
-        <v>0.9</v>
-      </c>
-      <c r="AS4">
-        <v>2.8</v>
-      </c>
       <c r="AT4">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="AU4">
-        <v>12.6</v>
+        <v>15.3</v>
       </c>
       <c r="AV4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AY4">
-        <v>1974</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="5" spans="1:51">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I5">
-        <v>0.375</v>
+        <v>0.633</v>
       </c>
       <c r="J5" t="s">
         <v>64</v>
       </c>
       <c r="K5">
-        <v>6027</v>
+        <v>4770</v>
       </c>
       <c r="L5">
-        <v>1541</v>
+        <v>1338</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5">
-        <v>6029</v>
-      </c>
-      <c r="O5" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5">
+        <v>293</v>
       </c>
       <c r="P5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q5">
         <v>1949</v>
@@ -1266,7 +1260,7 @@
         <v>70</v>
       </c>
       <c r="S5">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1275,22 +1269,22 @@
         <v>72</v>
       </c>
       <c r="V5" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="W5">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="Y5">
-        <v>32.3</v>
+        <v>43.6</v>
       </c>
       <c r="Z5">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="AA5">
-        <v>11.2</v>
+        <v>16</v>
       </c>
       <c r="AB5">
-        <v>0.551</v>
+        <v>0.598</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1302,361 +1296,63 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="AG5">
-        <v>11.2</v>
+        <v>16</v>
       </c>
       <c r="AH5">
-        <v>0.552</v>
+        <v>0.598</v>
       </c>
       <c r="AI5">
-        <v>0.551</v>
+        <v>0.598</v>
       </c>
       <c r="AJ5">
-        <v>2.2</v>
+        <v>4.7</v>
       </c>
       <c r="AK5">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="AL5">
-        <v>0.74</v>
+        <v>0.646</v>
       </c>
       <c r="AM5">
+        <v>5</v>
+      </c>
+      <c r="AN5">
+        <v>12.7</v>
+      </c>
+      <c r="AO5">
+        <v>17.8</v>
+      </c>
+      <c r="AP5">
+        <v>2.7</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS5">
         <v>4</v>
       </c>
-      <c r="AN5">
-        <v>9.6</v>
-      </c>
-      <c r="AO5">
-        <v>13.6</v>
-      </c>
-      <c r="AP5">
-        <v>1.8</v>
-      </c>
-      <c r="AQ5">
-        <v>0.4</v>
-      </c>
-      <c r="AR5">
-        <v>0.8</v>
-      </c>
-      <c r="AS5">
-        <v>2.5</v>
-      </c>
       <c r="AT5">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="AU5">
-        <v>14.5</v>
+        <v>23.8</v>
       </c>
       <c r="AV5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AW5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AX5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AY5">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
-      </c>
-      <c r="H6">
-        <v>59</v>
-      </c>
-      <c r="I6">
-        <v>0.407</v>
-      </c>
-      <c r="J6" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6">
-        <v>5273</v>
-      </c>
-      <c r="L6">
-        <v>1427</v>
-      </c>
-      <c r="M6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6">
-        <v>5273</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6">
-        <v>1951</v>
-      </c>
-      <c r="R6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6">
-        <v>22</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6" t="s">
-        <v>72</v>
-      </c>
-      <c r="V6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W6">
-        <v>63</v>
-      </c>
-      <c r="Y6">
-        <v>32.3</v>
-      </c>
-      <c r="Z6">
-        <v>6.3</v>
-      </c>
-      <c r="AA6">
-        <v>12.2</v>
-      </c>
-      <c r="AB6">
-        <v>0.515</v>
-      </c>
-      <c r="AC6">
-        <v>0.1</v>
-      </c>
-      <c r="AD6">
-        <v>0.4</v>
-      </c>
-      <c r="AE6">
-        <v>0.16</v>
-      </c>
-      <c r="AF6">
-        <v>6.2</v>
-      </c>
-      <c r="AG6">
-        <v>11.8</v>
-      </c>
-      <c r="AH6">
-        <v>0.527</v>
-      </c>
-      <c r="AI6">
-        <v>0.518</v>
-      </c>
-      <c r="AJ6">
-        <v>2.7</v>
-      </c>
-      <c r="AK6">
-        <v>3.6</v>
-      </c>
-      <c r="AL6">
-        <v>0.743</v>
-      </c>
-      <c r="AM6">
-        <v>1.2</v>
-      </c>
-      <c r="AN6">
-        <v>2</v>
-      </c>
-      <c r="AO6">
-        <v>3.2</v>
-      </c>
-      <c r="AP6">
-        <v>2.8</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS6">
-        <v>2.2</v>
-      </c>
-      <c r="AT6">
-        <v>3.5</v>
-      </c>
-      <c r="AU6">
-        <v>15.3</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY6">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7">
-        <v>38</v>
-      </c>
-      <c r="H7">
-        <v>60</v>
-      </c>
-      <c r="I7">
-        <v>0.633</v>
-      </c>
-      <c r="J7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7">
-        <v>4770</v>
-      </c>
-      <c r="L7">
-        <v>1338</v>
-      </c>
-      <c r="M7" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7">
-        <v>4770</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q7">
-        <v>1949</v>
-      </c>
-      <c r="R7" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7">
-        <v>23</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7" t="s">
-        <v>72</v>
-      </c>
-      <c r="V7" t="s">
-        <v>63</v>
-      </c>
-      <c r="W7">
-        <v>84</v>
-      </c>
-      <c r="Y7">
-        <v>43.6</v>
-      </c>
-      <c r="Z7">
-        <v>9.6</v>
-      </c>
-      <c r="AA7">
-        <v>16</v>
-      </c>
-      <c r="AB7">
-        <v>0.598</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>9.6</v>
-      </c>
-      <c r="AG7">
-        <v>16</v>
-      </c>
-      <c r="AH7">
-        <v>0.598</v>
-      </c>
-      <c r="AI7">
-        <v>0.598</v>
-      </c>
-      <c r="AJ7">
-        <v>4.7</v>
-      </c>
-      <c r="AK7">
-        <v>7.2</v>
-      </c>
-      <c r="AL7">
-        <v>0.646</v>
-      </c>
-      <c r="AM7">
-        <v>5</v>
-      </c>
-      <c r="AN7">
-        <v>12.7</v>
-      </c>
-      <c r="AO7">
-        <v>17.8</v>
-      </c>
-      <c r="AP7">
-        <v>2.7</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS7">
-        <v>4</v>
-      </c>
-      <c r="AT7">
-        <v>3.3</v>
-      </c>
-      <c r="AU7">
-        <v>23.8</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AY7">
         <v>1972</v>
       </c>
     </row>

--- a/aba_roy_winners.xlsx
+++ b/aba_roy_winners.xlsx
@@ -801,7 +801,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>3539</v>
+        <v>3545</v>
       </c>
       <c r="P2" t="s">
         <v>56</v>
@@ -950,7 +950,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>4727</v>
+        <v>4734</v>
       </c>
       <c r="P3" t="s">
         <v>57</v>
@@ -1099,7 +1099,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P4" t="s">
         <v>58</v>

--- a/aba_roy_winners.xlsx
+++ b/aba_roy_winners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
   <si>
     <t>season_ending_year_x</t>
   </si>
@@ -233,9 +233,6 @@
   </si>
   <si>
     <t>ABA</t>
-  </si>
-  <si>
-    <t>N/A - Stat tracked as of the 1973-74 ABA Season</t>
   </si>
   <si>
     <t>Yes</t>
@@ -900,10 +897,10 @@
         <v>65</v>
       </c>
       <c r="AW2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX2" t="s">
         <v>74</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>75</v>
       </c>
       <c r="AY2">
         <v>1975</v>
@@ -1049,10 +1046,10 @@
         <v>66</v>
       </c>
       <c r="AW3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX3" t="s">
         <v>74</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>75</v>
       </c>
       <c r="AY3">
         <v>1974</v>
@@ -1179,12 +1176,6 @@
       <c r="AP4">
         <v>2.8</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>73</v>
-      </c>
       <c r="AS4">
         <v>2.2</v>
       </c>
@@ -1198,10 +1189,10 @@
         <v>67</v>
       </c>
       <c r="AW4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AX4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AY4">
         <v>1973</v>
@@ -1328,11 +1319,8 @@
       <c r="AP5">
         <v>2.7</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>73</v>
+      <c r="AR5">
+        <v>5</v>
       </c>
       <c r="AS5">
         <v>4</v>
@@ -1347,10 +1335,10 @@
         <v>68</v>
       </c>
       <c r="AW5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX5" t="s">
         <v>74</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>75</v>
       </c>
       <c r="AY5">
         <v>1972</v>

--- a/aba_roy_winners.xlsx
+++ b/aba_roy_winners.xlsx
@@ -798,7 +798,7 @@
         <v>51</v>
       </c>
       <c r="O2">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="P2" t="s">
         <v>56</v>
@@ -947,7 +947,7 @@
         <v>52</v>
       </c>
       <c r="O3">
-        <v>4734</v>
+        <v>4732</v>
       </c>
       <c r="P3" t="s">
         <v>57</v>
@@ -1096,7 +1096,7 @@
         <v>53</v>
       </c>
       <c r="O4">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="P4" t="s">
         <v>58</v>
@@ -1239,7 +1239,7 @@
         <v>54</v>
       </c>
       <c r="O5">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P5" t="s">
         <v>59</v>
